--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ahsg-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ahsg-Insr.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N2">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q2">
-        <v>2.387044700558333</v>
+        <v>1.174940794673333</v>
       </c>
       <c r="R2">
-        <v>21.483402305025</v>
+        <v>10.57446715206</v>
       </c>
       <c r="S2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="T2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>27.233122</v>
       </c>
       <c r="O3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q3">
         <v>1.249936755848667</v>
@@ -632,10 +632,10 @@
         <v>11.249430802638</v>
       </c>
       <c r="S3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="T3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>34.473282</v>
       </c>
       <c r="O4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q4">
         <v>1.582243206142</v>
@@ -694,10 +694,10 @@
         <v>14.240188855278</v>
       </c>
       <c r="S4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="T4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
     </row>
   </sheetData>
